--- a/DataAwardRecap.xlsx
+++ b/DataAwardRecap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aslab\RIG\website_slc_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC726A-B67A-4F33-B1E0-C1E73621AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8B65E4-C2F6-458C-8E16-29E830868E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{69E03CC2-5B9B-0342-A077-AA09903F1B32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69E03CC2-5B9B-0342-A077-AA09903F1B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="555">
   <si>
     <t>Award Name</t>
   </si>
@@ -977,81 +977,6 @@
   </si>
   <si>
     <t>Odd 2020/2021</t>
-  </si>
-  <si>
-    <t>Odd 2020/2022</t>
-  </si>
-  <si>
-    <t>Odd 2020/2023</t>
-  </si>
-  <si>
-    <t>Odd 2020/2024</t>
-  </si>
-  <si>
-    <t>Odd 2020/2025</t>
-  </si>
-  <si>
-    <t>Odd 2020/2026</t>
-  </si>
-  <si>
-    <t>Odd 2020/2027</t>
-  </si>
-  <si>
-    <t>Odd 2020/2028</t>
-  </si>
-  <si>
-    <t>Odd 2020/2029</t>
-  </si>
-  <si>
-    <t>Odd 2020/2030</t>
-  </si>
-  <si>
-    <t>Odd 2020/2031</t>
-  </si>
-  <si>
-    <t>Odd 2020/2032</t>
-  </si>
-  <si>
-    <t>Odd 2020/2033</t>
-  </si>
-  <si>
-    <t>Odd 2020/2034</t>
-  </si>
-  <si>
-    <t>Odd 2020/2035</t>
-  </si>
-  <si>
-    <t>Odd 2020/2036</t>
-  </si>
-  <si>
-    <t>Odd 2020/2037</t>
-  </si>
-  <si>
-    <t>Odd 2020/2038</t>
-  </si>
-  <si>
-    <t>Odd 2020/2039</t>
-  </si>
-  <si>
-    <t>Odd 2020/2040</t>
-  </si>
-  <si>
-    <t>Odd 2020/2041</t>
-  </si>
-  <si>
-    <t>Odd 2020/2042</t>
-  </si>
-  <si>
-    <t>Odd 2020/2043</t>
-  </si>
-  <si>
-    <t>Odd 2020/2044</t>
-  </si>
-  <si>
-    <t>Odd 2020/2045</t>
-  </si>
-  <si>
-    <t>Odd 2020/2046</t>
   </si>
   <si>
     <t>MV</t>
@@ -2274,18 +2199,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E0167F-7A06-1E42-9CB5-78DF5D8873FB}">
   <dimension ref="B3:G460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191:F215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.5" style="1"/>
-    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="15.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2305,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -2322,7 +2247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +2281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2373,7 +2298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2390,7 +2315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -2424,7 +2349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2458,7 +2383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,7 +2400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2492,7 +2417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,7 +2434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2543,7 +2468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2560,7 +2485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2577,7 +2502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2611,7 +2536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
@@ -2628,7 +2553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2645,7 +2570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2679,7 +2604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -2696,7 +2621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>95</v>
       </c>
@@ -2713,7 +2638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
@@ -2730,7 +2655,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2747,7 +2672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
@@ -2764,7 +2689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2781,7 +2706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2798,7 +2723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>139</v>
       </c>
@@ -2815,7 +2740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>141</v>
       </c>
@@ -2832,7 +2757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2849,7 +2774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2866,7 +2791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
@@ -2883,7 +2808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2900,7 +2825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +2842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2951,7 +2876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +2893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -2985,7 +2910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
@@ -3002,7 +2927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +2944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>33</v>
       </c>
@@ -3036,7 +2961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -3053,7 +2978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3070,7 +2995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
@@ -3087,7 +3012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,7 +3046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +3063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
@@ -3155,7 +3080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
@@ -3172,7 +3097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>89</v>
       </c>
@@ -3189,7 +3114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
@@ -3206,7 +3131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>134</v>
       </c>
@@ -3223,7 +3148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>110</v>
       </c>
@@ -3240,7 +3165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>104</v>
       </c>
@@ -3257,7 +3182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,7 +3199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>106</v>
       </c>
@@ -3291,7 +3216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>108</v>
       </c>
@@ -3308,7 +3233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>110</v>
       </c>
@@ -3325,7 +3250,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>112</v>
       </c>
@@ -3342,7 +3267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>114</v>
       </c>
@@ -3359,7 +3284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>60</v>
       </c>
@@ -3376,7 +3301,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>116</v>
       </c>
@@ -3393,7 +3318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>53</v>
       </c>
@@ -3410,7 +3335,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
@@ -3427,7 +3352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>120</v>
       </c>
@@ -3444,7 +3369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
@@ -3461,7 +3386,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>122</v>
       </c>
@@ -3478,7 +3403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>124</v>
       </c>
@@ -3495,7 +3420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>104</v>
       </c>
@@ -3512,7 +3437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>128</v>
       </c>
@@ -3529,7 +3454,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>130</v>
       </c>
@@ -3546,7 +3471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>132</v>
       </c>
@@ -3563,7 +3488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
@@ -3580,7 +3505,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>118</v>
       </c>
@@ -3597,7 +3522,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>92</v>
       </c>
@@ -3614,7 +3539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>156</v>
       </c>
@@ -3631,7 +3556,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>157</v>
       </c>
@@ -3648,7 +3573,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>158</v>
       </c>
@@ -3665,7 +3590,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>159</v>
       </c>
@@ -3682,7 +3607,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>160</v>
       </c>
@@ -3699,7 +3624,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>161</v>
       </c>
@@ -3716,7 +3641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>94</v>
       </c>
@@ -3733,7 +3658,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>104</v>
       </c>
@@ -3750,7 +3675,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>120</v>
       </c>
@@ -3767,7 +3692,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>93</v>
       </c>
@@ -3784,7 +3709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>110</v>
       </c>
@@ -3801,7 +3726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>128</v>
       </c>
@@ -3818,7 +3743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>112</v>
       </c>
@@ -3835,7 +3760,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>162</v>
       </c>
@@ -3852,7 +3777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>106</v>
       </c>
@@ -3869,7 +3794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>118</v>
       </c>
@@ -3886,7 +3811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>108</v>
       </c>
@@ -3903,7 +3828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>122</v>
       </c>
@@ -3920,7 +3845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>132</v>
       </c>
@@ -3937,7 +3862,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
@@ -3954,7 +3879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
@@ -3971,7 +3896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>156</v>
       </c>
@@ -3988,7 +3913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4005,7 +3930,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>166</v>
       </c>
@@ -4022,7 +3947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>92</v>
       </c>
@@ -4039,7 +3964,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
@@ -4056,7 +3981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>171</v>
       </c>
@@ -4073,7 +3998,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>173</v>
       </c>
@@ -4090,7 +4015,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>175</v>
       </c>
@@ -4107,7 +4032,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>161</v>
       </c>
@@ -4124,7 +4049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>177</v>
       </c>
@@ -4141,7 +4066,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>180</v>
       </c>
@@ -4158,7 +4083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>158</v>
       </c>
@@ -4175,7 +4100,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>162</v>
       </c>
@@ -4192,7 +4117,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>165</v>
       </c>
@@ -4209,7 +4134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>183</v>
       </c>
@@ -4226,7 +4151,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>185</v>
       </c>
@@ -4243,7 +4168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>187</v>
       </c>
@@ -4260,7 +4185,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>183</v>
       </c>
@@ -4277,7 +4202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>189</v>
       </c>
@@ -4294,7 +4219,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>177</v>
       </c>
@@ -4311,7 +4236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>191</v>
       </c>
@@ -4328,7 +4253,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4345,7 +4270,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>193</v>
       </c>
@@ -4362,7 +4287,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>195</v>
       </c>
@@ -4379,7 +4304,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>197</v>
       </c>
@@ -4396,7 +4321,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4413,7 +4338,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>124</v>
       </c>
@@ -4430,7 +4355,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>189</v>
       </c>
@@ -4447,7 +4372,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>199</v>
       </c>
@@ -4464,7 +4389,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>160</v>
       </c>
@@ -4481,7 +4406,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>195</v>
       </c>
@@ -4498,7 +4423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>94</v>
       </c>
@@ -4515,7 +4440,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>201</v>
       </c>
@@ -4532,7 +4457,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>159</v>
       </c>
@@ -4549,7 +4474,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>165</v>
       </c>
@@ -4566,7 +4491,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>191</v>
       </c>
@@ -4583,7 +4508,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>204</v>
       </c>
@@ -4600,7 +4525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>191</v>
       </c>
@@ -4617,7 +4542,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>124</v>
       </c>
@@ -4634,7 +4559,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>195</v>
       </c>
@@ -4651,7 +4576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>193</v>
       </c>
@@ -4668,7 +4593,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>206</v>
       </c>
@@ -4685,7 +4610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>208</v>
       </c>
@@ -4702,7 +4627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>210</v>
       </c>
@@ -4719,7 +4644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>212</v>
       </c>
@@ -4736,7 +4661,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>171</v>
       </c>
@@ -4753,7 +4678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>169</v>
       </c>
@@ -4770,7 +4695,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>214</v>
       </c>
@@ -4787,7 +4712,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>124</v>
       </c>
@@ -4804,7 +4729,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>195</v>
       </c>
@@ -4821,7 +4746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>216</v>
       </c>
@@ -4838,7 +4763,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>218</v>
       </c>
@@ -4855,7 +4780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>189</v>
       </c>
@@ -4872,7 +4797,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>220</v>
       </c>
@@ -4889,7 +4814,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>222</v>
       </c>
@@ -4906,7 +4831,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>224</v>
       </c>
@@ -4923,7 +4848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>183</v>
       </c>
@@ -4940,7 +4865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>226</v>
       </c>
@@ -4957,7 +4882,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>212</v>
       </c>
@@ -4974,7 +4899,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>226</v>
       </c>
@@ -4991,7 +4916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>218</v>
       </c>
@@ -5008,7 +4933,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>191</v>
       </c>
@@ -5025,7 +4950,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>124</v>
       </c>
@@ -5042,7 +4967,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>222</v>
       </c>
@@ -5059,7 +4984,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>239</v>
       </c>
@@ -5076,7 +5001,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>214</v>
       </c>
@@ -5093,7 +5018,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>240</v>
       </c>
@@ -5110,7 +5035,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>241</v>
       </c>
@@ -5127,7 +5052,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>180</v>
       </c>
@@ -5144,7 +5069,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>242</v>
       </c>
@@ -5161,7 +5086,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>243</v>
       </c>
@@ -5178,7 +5103,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>195</v>
       </c>
@@ -5195,7 +5120,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>220</v>
       </c>
@@ -5212,7 +5137,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>208</v>
       </c>
@@ -5229,7 +5154,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>244</v>
       </c>
@@ -5246,7 +5171,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>216</v>
       </c>
@@ -5263,7 +5188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>245</v>
       </c>
@@ -5280,7 +5205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>246</v>
       </c>
@@ -5297,7 +5222,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>257</v>
       </c>
@@ -5314,7 +5239,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>258</v>
       </c>
@@ -5331,7 +5256,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>243</v>
       </c>
@@ -5348,7 +5273,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>214</v>
       </c>
@@ -5365,7 +5290,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>240</v>
       </c>
@@ -5382,7 +5307,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>259</v>
       </c>
@@ -5399,7 +5324,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>206</v>
       </c>
@@ -5416,7 +5341,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>260</v>
       </c>
@@ -5433,7 +5358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>177</v>
       </c>
@@ -5450,7 +5375,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>261</v>
       </c>
@@ -5467,7 +5392,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>224</v>
       </c>
@@ -5484,7 +5409,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>242</v>
       </c>
@@ -5498,10 +5423,10 @@
         <v>91</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>281</v>
       </c>
@@ -5515,10 +5440,10 @@
         <v>91</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>282</v>
       </c>
@@ -5532,10 +5457,10 @@
         <v>265</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>283</v>
       </c>
@@ -5549,10 +5474,10 @@
         <v>265</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>284</v>
       </c>
@@ -5566,10 +5491,10 @@
         <v>39</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>285</v>
       </c>
@@ -5583,10 +5508,10 @@
         <v>39</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>286</v>
       </c>
@@ -5600,10 +5525,10 @@
         <v>32</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>287</v>
       </c>
@@ -5617,10 +5542,10 @@
         <v>32</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>257</v>
       </c>
@@ -5634,10 +5559,10 @@
         <v>32</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>288</v>
       </c>
@@ -5651,10 +5576,10 @@
         <v>83</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>222</v>
       </c>
@@ -5668,10 +5593,10 @@
         <v>83</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>289</v>
       </c>
@@ -5685,10 +5610,10 @@
         <v>14</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>124</v>
       </c>
@@ -5702,10 +5627,10 @@
         <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>258</v>
       </c>
@@ -5719,10 +5644,10 @@
         <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>195</v>
       </c>
@@ -5736,10 +5661,10 @@
         <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>240</v>
       </c>
@@ -5753,10 +5678,10 @@
         <v>14</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>245</v>
       </c>
@@ -5770,10 +5695,10 @@
         <v>14</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>204</v>
       </c>
@@ -5787,10 +5712,10 @@
         <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>290</v>
       </c>
@@ -5804,10 +5729,10 @@
         <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>243</v>
       </c>
@@ -5821,10 +5746,10 @@
         <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>241</v>
       </c>
@@ -5838,10 +5763,10 @@
         <v>14</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>206</v>
       </c>
@@ -5855,10 +5780,10 @@
         <v>14</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>291</v>
       </c>
@@ -5872,10 +5797,10 @@
         <v>14</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>292</v>
       </c>
@@ -5889,10 +5814,10 @@
         <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>293</v>
       </c>
@@ -5906,27 +5831,27 @@
         <v>14</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>222</v>
       </c>
@@ -5940,27 +5865,27 @@
         <v>85</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>116</v>
       </c>
@@ -5968,50 +5893,50 @@
         <v>229</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>281</v>
       </c>
@@ -6025,78 +5950,78 @@
         <v>91</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>180</v>
       </c>
@@ -6110,10 +6035,10 @@
         <v>39</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>286</v>
       </c>
@@ -6127,10 +6052,10 @@
         <v>32</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>180</v>
       </c>
@@ -6144,61 +6069,61 @@
         <v>32</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>17</v>
       </c>
@@ -6206,16 +6131,16 @@
         <v>135</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>44</v>
       </c>
@@ -6223,169 +6148,169 @@
         <v>135</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>291</v>
       </c>
@@ -6399,27 +6324,27 @@
         <v>39</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>189</v>
       </c>
@@ -6427,18 +6352,18 @@
         <v>135</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>229</v>
@@ -6450,27 +6375,27 @@
         <v>32</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>51</v>
       </c>
@@ -6484,44 +6409,44 @@
         <v>32</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>222</v>
       </c>
@@ -6535,10 +6460,10 @@
         <v>14</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
         <v>242</v>
       </c>
@@ -6552,10 +6477,10 @@
         <v>14</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>187</v>
       </c>
@@ -6569,61 +6494,61 @@
         <v>14</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>180</v>
       </c>
@@ -6637,10 +6562,10 @@
         <v>14</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>220</v>
       </c>
@@ -6654,131 +6579,131 @@
         <v>14</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>229</v>
@@ -6790,10 +6715,10 @@
         <v>32</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>159</v>
       </c>
@@ -6801,18 +6726,18 @@
         <v>135</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>229</v>
@@ -6824,27 +6749,27 @@
         <v>32</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>89</v>
       </c>
@@ -6852,33 +6777,33 @@
         <v>135</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>17</v>
       </c>
@@ -6886,16 +6811,16 @@
         <v>135</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>96</v>
       </c>
@@ -6903,33 +6828,33 @@
         <v>135</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>216</v>
       </c>
@@ -6943,10 +6868,10 @@
         <v>14</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>51</v>
       </c>
@@ -6960,27 +6885,27 @@
         <v>14</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>287</v>
       </c>
@@ -6994,44 +6919,44 @@
         <v>14</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>134</v>
       </c>
@@ -7045,248 +6970,248 @@
         <v>83</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.45">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
         <v>26</v>
       </c>
@@ -7294,793 +7219,793 @@
         <v>142</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D339" s="1" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D341" s="1" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D342" s="1" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D352" s="1" t="s">
         <v>266</v>
       </c>
@@ -8088,203 +8013,203 @@
         <v>83</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D353" s="1" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D354" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D355" s="1" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D356" s="1" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D357" s="1" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D359" s="1" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D360" s="1" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D361" s="1" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D362" s="1" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D363" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D364" s="1" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D365" s="1" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D366" s="1" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D367" s="1" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D368" s="1" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D369" s="1" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D370" s="1" t="s">
         <v>264</v>
       </c>
@@ -8292,231 +8217,231 @@
         <v>14</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D371" s="1" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D372" s="1" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D373" s="1" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D374" s="1" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D375" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D376" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D377" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D378" s="1" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D379" s="1" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F380" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B381" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D382" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D383" s="1" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D384" s="1" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="1" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="1" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="1" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="1" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="1" t="s">
         <v>264</v>
       </c>
@@ -8524,259 +8449,259 @@
         <v>14</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="1" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D394" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D395" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D394" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D395" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="E395" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="1" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="1" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="1" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D401" s="1" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D403" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D404" s="1" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D405" s="1" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D406" s="1" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D407" s="1" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>290</v>
       </c>
@@ -8787,10 +8712,10 @@
         <v>14</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
         <v>89</v>
       </c>
@@ -8801,284 +8726,284 @@
         <v>14</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D417" s="1" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D418" s="1" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D419" s="1" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D420" s="1" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D421" s="1" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D424" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D425" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D426" s="1" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D427" s="1" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D428" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D429" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D430" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D431" s="1" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D432" s="1" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D433" s="1" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D434" s="1" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D435" s="1" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D436" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D437" s="1" t="s">
         <v>235</v>
       </c>
@@ -9086,329 +9011,329 @@
         <v>14</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D449" s="1" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D451" s="1" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -9429,58 +9354,58 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4:B12">_xlfn.UNIQUE(Table2[Award Name])</f>
         <v>Best Teaching Index Assistant</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <v>Best Performing Assistant</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <v>Best Assistant Diploma</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <v>Best Assistant Candidate</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <v>Best RIG</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <v>Best TPA</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <v>Guider of Best RIG Performing Team</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <v>Best Qualification</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <v xml:space="preserve"> Best Performing Assistant</v>
       </c>
